--- a/BackTest/2020-01-16 BackTest LUNA.xlsx
+++ b/BackTest/2020-01-16 BackTest LUNA.xlsx
@@ -16225,7 +16225,7 @@
         <v>-222233.8410709298</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>-227696.4771709298</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-206078.1937709298</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-211168.7838709298</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-223082.9585709298</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-231684.3190709298</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-227197.7372709299</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-231311.4139709299</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-226412.1035709299</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-229004.9648709299</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-225354.6027709299</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-229008.2928709299</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-236881.0527709299</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-237706.1094709299</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-242978.0327709299</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-247106.3823709298</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-241493.6258709299</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-246755.0888709298</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-244656.6204709298</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-250156.0990709298</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-253354.8694709298</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-250057.5377709298</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-253033.6763709298</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-246427.6360709298</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-243212.7604709298</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-247429.5944709298</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-251480.7843709298</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -24112,11 +24112,17 @@
         <v>-376759.8913998696</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
-      </c>
-      <c r="I719" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I719" t="n">
+        <v>222.6</v>
+      </c>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24145,11 +24151,17 @@
         <v>-370722.6450998696</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
-      </c>
-      <c r="I720" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I720" t="n">
+        <v>222.9</v>
+      </c>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24178,11 +24190,17 @@
         <v>-374468.5214998696</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
-      </c>
-      <c r="I721" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I721" t="n">
+        <v>223.2</v>
+      </c>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24211,11 +24229,17 @@
         <v>-374468.5214998696</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
-      </c>
-      <c r="I722" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I722" t="n">
+        <v>222.8</v>
+      </c>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24248,7 +24272,11 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24281,7 +24309,11 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24314,7 +24346,11 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24347,7 +24383,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -24384,7 +24424,7 @@
       <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L727" t="n">
@@ -24688,9 +24728,11 @@
         <v>-342679.8997998696</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
-      </c>
-      <c r="I735" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I735" t="n">
+        <v>223.5</v>
+      </c>
       <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr">
         <is>
@@ -24725,9 +24767,11 @@
         <v>-349511.2128998696</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
-      </c>
-      <c r="I736" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I736" t="n">
+        <v>224</v>
+      </c>
       <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr">
         <is>
@@ -24762,9 +24806,11 @@
         <v>-342724.0143998696</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
-      </c>
-      <c r="I737" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I737" t="n">
+        <v>223.1</v>
+      </c>
       <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr">
         <is>
@@ -24799,9 +24845,11 @@
         <v>-348633.6747998696</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
-      </c>
-      <c r="I738" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I738" t="n">
+        <v>223.5</v>
+      </c>
       <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr">
         <is>
@@ -24836,9 +24884,11 @@
         <v>-343968.4162998696</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
-      </c>
-      <c r="I739" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I739" t="n">
+        <v>223.2</v>
+      </c>
       <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr">
         <is>
@@ -24873,9 +24923,11 @@
         <v>-346344.9813998696</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
-      </c>
-      <c r="I740" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I740" t="n">
+        <v>223.3</v>
+      </c>
       <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr">
         <is>
@@ -24910,9 +24962,11 @@
         <v>-338436.7451998696</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
-      </c>
-      <c r="I741" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I741" t="n">
+        <v>223.1</v>
+      </c>
       <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr">
         <is>
@@ -24947,9 +25001,11 @@
         <v>-343831.4024998696</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
-      </c>
-      <c r="I742" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I742" t="n">
+        <v>223.8</v>
+      </c>
       <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr">
         <is>
@@ -25058,9 +25114,11 @@
         <v>-343831.4024998696</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
-      </c>
-      <c r="I745" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I745" t="n">
+        <v>223.6</v>
+      </c>
       <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr">
         <is>
@@ -25169,9 +25227,11 @@
         <v>-349990.6576998697</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
-      </c>
-      <c r="I748" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I748" t="n">
+        <v>223.7</v>
+      </c>
       <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr">
         <is>
@@ -25206,9 +25266,11 @@
         <v>-359789.8988998696</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
-      </c>
-      <c r="I749" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I749" t="n">
+        <v>223.1</v>
+      </c>
       <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr">
         <is>
@@ -25243,9 +25305,11 @@
         <v>-352308.4081998696</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
-      </c>
-      <c r="I750" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I750" t="n">
+        <v>223</v>
+      </c>
       <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr">
         <is>
@@ -25465,9 +25529,11 @@
         <v>-347766.3634998696</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
-      </c>
-      <c r="I756" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I756" t="n">
+        <v>223.1</v>
+      </c>
       <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr">
         <is>
@@ -28351,9 +28417,11 @@
         <v>-343639.5032424896</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
-      </c>
-      <c r="I834" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I834" t="n">
+        <v>217.3</v>
+      </c>
       <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr">
         <is>
@@ -29051,9 +29119,11 @@
         <v>-330304.1022424896</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
-      </c>
-      <c r="I852" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I852" t="n">
+        <v>220.6</v>
+      </c>
       <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr">
         <is>
@@ -29088,9 +29158,11 @@
         <v>-335470.3910424896</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
-      </c>
-      <c r="I853" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I853" t="n">
+        <v>220.6</v>
+      </c>
       <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr">
         <is>
@@ -29125,9 +29197,11 @@
         <v>-335470.3910424896</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
-      </c>
-      <c r="I854" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I854" t="n">
+        <v>220.5</v>
+      </c>
       <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr">
         <is>
@@ -29162,9 +29236,11 @@
         <v>-332016.0396424896</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
-      </c>
-      <c r="I855" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I855" t="n">
+        <v>220.5</v>
+      </c>
       <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr">
         <is>
@@ -29199,9 +29275,11 @@
         <v>-335686.5708424897</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
-      </c>
-      <c r="I856" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I856" t="n">
+        <v>220.6</v>
+      </c>
       <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr">
         <is>
@@ -29236,9 +29314,11 @@
         <v>-348363.3364424896</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
-      </c>
-      <c r="I857" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I857" t="n">
+        <v>220.5</v>
+      </c>
       <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr">
         <is>
@@ -29273,9 +29353,11 @@
         <v>-353147.5022424897</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
-      </c>
-      <c r="I858" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I858" t="n">
+        <v>220.4</v>
+      </c>
       <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr">
         <is>
@@ -29310,9 +29392,11 @@
         <v>-346955.4098424896</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
-      </c>
-      <c r="I859" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I859" t="n">
+        <v>220.1</v>
+      </c>
       <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr">
         <is>
@@ -29347,9 +29431,11 @@
         <v>-342017.0832424896</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
-      </c>
-      <c r="I860" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I860" t="n">
+        <v>220.4</v>
+      </c>
       <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr">
         <is>
@@ -29384,9 +29470,11 @@
         <v>-334114.9115424896</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
-      </c>
-      <c r="I861" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I861" t="n">
+        <v>220.5</v>
+      </c>
       <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr">
         <is>
@@ -29421,9 +29509,11 @@
         <v>-329276.2793424896</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
-      </c>
-      <c r="I862" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I862" t="n">
+        <v>221.3</v>
+      </c>
       <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr">
         <is>
@@ -29458,9 +29548,11 @@
         <v>-333289.1971424896</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
-      </c>
-      <c r="I863" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I863" t="n">
+        <v>222.7</v>
+      </c>
       <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr">
         <is>
@@ -29495,9 +29587,11 @@
         <v>-336966.9913424896</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
-      </c>
-      <c r="I864" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I864" t="n">
+        <v>221.5</v>
+      </c>
       <c r="J864" t="inlineStr"/>
       <c r="K864" t="inlineStr">
         <is>
@@ -29532,9 +29626,11 @@
         <v>-336966.9913424896</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
-      </c>
-      <c r="I865" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I865" t="n">
+        <v>220.9</v>
+      </c>
       <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr">
         <is>
@@ -29569,9 +29665,11 @@
         <v>-342633.3794424896</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
-      </c>
-      <c r="I866" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I866" t="n">
+        <v>220.9</v>
+      </c>
       <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr">
         <is>
@@ -29606,9 +29704,11 @@
         <v>-342633.3794424896</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
-      </c>
-      <c r="I867" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I867" t="n">
+        <v>220.6</v>
+      </c>
       <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr">
         <is>
@@ -29643,9 +29743,11 @@
         <v>-339743.8604424896</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
-      </c>
-      <c r="I868" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I868" t="n">
+        <v>220.6</v>
+      </c>
       <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr">
         <is>
@@ -29680,9 +29782,11 @@
         <v>-333992.6840424896</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
-      </c>
-      <c r="I869" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I869" t="n">
+        <v>220.7</v>
+      </c>
       <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr">
         <is>
@@ -29717,9 +29821,11 @@
         <v>-333992.6840424896</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
-      </c>
-      <c r="I870" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I870" t="n">
+        <v>220.8</v>
+      </c>
       <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr">
         <is>
@@ -29754,9 +29860,11 @@
         <v>-333992.6840424896</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
-      </c>
-      <c r="I871" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I871" t="n">
+        <v>220.8</v>
+      </c>
       <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr">
         <is>
@@ -29791,9 +29899,11 @@
         <v>-339315.2853424896</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
-      </c>
-      <c r="I872" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I872" t="n">
+        <v>220.8</v>
+      </c>
       <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr">
         <is>
@@ -29828,9 +29938,11 @@
         <v>-342301.5261424896</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
-      </c>
-      <c r="I873" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I873" t="n">
+        <v>220.7</v>
+      </c>
       <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr">
         <is>
@@ -29865,9 +29977,11 @@
         <v>-338292.7371424896</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
-      </c>
-      <c r="I874" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I874" t="n">
+        <v>220.6</v>
+      </c>
       <c r="J874" t="inlineStr"/>
       <c r="K874" t="inlineStr">
         <is>
@@ -29902,9 +30016,11 @@
         <v>-335573.1013424897</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
-      </c>
-      <c r="I875" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I875" t="n">
+        <v>220.7</v>
+      </c>
       <c r="J875" t="inlineStr"/>
       <c r="K875" t="inlineStr">
         <is>
@@ -29939,9 +30055,11 @@
         <v>-341170.3669424896</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
-      </c>
-      <c r="I876" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I876" t="n">
+        <v>220.8</v>
+      </c>
       <c r="J876" t="inlineStr"/>
       <c r="K876" t="inlineStr">
         <is>
@@ -29976,9 +30094,11 @@
         <v>-341170.3669424896</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
-      </c>
-      <c r="I877" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I877" t="n">
+        <v>220.6</v>
+      </c>
       <c r="J877" t="inlineStr"/>
       <c r="K877" t="inlineStr">
         <is>
@@ -30013,9 +30133,11 @@
         <v>-335630.0577424896</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
-      </c>
-      <c r="I878" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I878" t="n">
+        <v>220.6</v>
+      </c>
       <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr">
         <is>
@@ -30050,9 +30172,11 @@
         <v>-335630.0577424896</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
-      </c>
-      <c r="I879" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I879" t="n">
+        <v>220.8</v>
+      </c>
       <c r="J879" t="inlineStr"/>
       <c r="K879" t="inlineStr">
         <is>
@@ -30087,9 +30211,11 @@
         <v>-339589.3584424896</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
-      </c>
-      <c r="I880" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I880" t="n">
+        <v>220.8</v>
+      </c>
       <c r="J880" t="inlineStr"/>
       <c r="K880" t="inlineStr">
         <is>
@@ -30124,9 +30250,11 @@
         <v>-339589.3584424896</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
-      </c>
-      <c r="I881" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I881" t="n">
+        <v>220.7</v>
+      </c>
       <c r="J881" t="inlineStr"/>
       <c r="K881" t="inlineStr">
         <is>
@@ -30161,9 +30289,11 @@
         <v>-339589.3584424896</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
-      </c>
-      <c r="I882" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I882" t="n">
+        <v>220.7</v>
+      </c>
       <c r="J882" t="inlineStr"/>
       <c r="K882" t="inlineStr">
         <is>
@@ -30198,9 +30328,11 @@
         <v>-345153.3561424896</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
-      </c>
-      <c r="I883" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I883" t="n">
+        <v>220.7</v>
+      </c>
       <c r="J883" t="inlineStr"/>
       <c r="K883" t="inlineStr">
         <is>
@@ -30235,9 +30367,11 @@
         <v>-340525.9025424896</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
-      </c>
-      <c r="I884" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I884" t="n">
+        <v>220.4</v>
+      </c>
       <c r="J884" t="inlineStr"/>
       <c r="K884" t="inlineStr">
         <is>
@@ -30272,9 +30406,11 @@
         <v>-334076.3861424896</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
-      </c>
-      <c r="I885" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I885" t="n">
+        <v>220.5</v>
+      </c>
       <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr">
         <is>
@@ -30309,9 +30445,11 @@
         <v>-334076.3861424896</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
-      </c>
-      <c r="I886" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I886" t="n">
+        <v>220.6</v>
+      </c>
       <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr">
         <is>
@@ -30346,9 +30484,11 @@
         <v>-334076.3861424896</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
-      </c>
-      <c r="I887" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I887" t="n">
+        <v>220.6</v>
+      </c>
       <c r="J887" t="inlineStr"/>
       <c r="K887" t="inlineStr">
         <is>
@@ -30383,9 +30523,11 @@
         <v>-337508.0736424896</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
-      </c>
-      <c r="I888" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I888" t="n">
+        <v>220.6</v>
+      </c>
       <c r="J888" t="inlineStr"/>
       <c r="K888" t="inlineStr">
         <is>
@@ -30420,9 +30562,11 @@
         <v>-337508.0736424896</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
-      </c>
-      <c r="I889" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I889" t="n">
+        <v>220.5</v>
+      </c>
       <c r="J889" t="inlineStr"/>
       <c r="K889" t="inlineStr">
         <is>
@@ -30457,9 +30601,11 @@
         <v>-337508.0736424896</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
-      </c>
-      <c r="I890" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I890" t="n">
+        <v>220.5</v>
+      </c>
       <c r="J890" t="inlineStr"/>
       <c r="K890" t="inlineStr">
         <is>
@@ -30494,9 +30640,11 @@
         <v>-337508.0736424896</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
-      </c>
-      <c r="I891" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I891" t="n">
+        <v>220.5</v>
+      </c>
       <c r="J891" t="inlineStr"/>
       <c r="K891" t="inlineStr">
         <is>
@@ -30531,9 +30679,11 @@
         <v>-337508.0736424896</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
-      </c>
-      <c r="I892" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I892" t="n">
+        <v>220.5</v>
+      </c>
       <c r="J892" t="inlineStr"/>
       <c r="K892" t="inlineStr">
         <is>
@@ -30568,9 +30718,11 @@
         <v>-337508.0736424896</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
-      </c>
-      <c r="I893" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I893" t="n">
+        <v>220.5</v>
+      </c>
       <c r="J893" t="inlineStr"/>
       <c r="K893" t="inlineStr">
         <is>
@@ -30605,9 +30757,11 @@
         <v>-339559.9916424896</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
-      </c>
-      <c r="I894" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I894" t="n">
+        <v>220.5</v>
+      </c>
       <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr">
         <is>
@@ -30642,9 +30796,11 @@
         <v>-339559.9916424896</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
-      </c>
-      <c r="I895" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I895" t="n">
+        <v>220.4</v>
+      </c>
       <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr">
         <is>
@@ -30679,9 +30835,11 @@
         <v>-339559.9916424896</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
-      </c>
-      <c r="I896" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I896" t="n">
+        <v>220.4</v>
+      </c>
       <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr">
         <is>
@@ -30716,9 +30874,11 @@
         <v>-343963.0905424896</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
-      </c>
-      <c r="I897" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I897" t="n">
+        <v>220.4</v>
+      </c>
       <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr">
         <is>
@@ -30753,9 +30913,11 @@
         <v>-343963.0905424896</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
-      </c>
-      <c r="I898" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I898" t="n">
+        <v>220.3</v>
+      </c>
       <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr">
         <is>
@@ -30790,9 +30952,11 @@
         <v>-343963.0905424896</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
-      </c>
-      <c r="I899" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I899" t="n">
+        <v>220.3</v>
+      </c>
       <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr">
         <is>
@@ -30827,9 +30991,11 @@
         <v>-338628.8932424896</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
-      </c>
-      <c r="I900" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I900" t="n">
+        <v>220.3</v>
+      </c>
       <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr">
         <is>
@@ -30864,9 +31030,11 @@
         <v>-338628.8932424896</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
-      </c>
-      <c r="I901" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I901" t="n">
+        <v>220.4</v>
+      </c>
       <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr">
         <is>
@@ -30901,9 +31069,11 @@
         <v>-338628.8932424896</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
-      </c>
-      <c r="I902" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I902" t="n">
+        <v>220.4</v>
+      </c>
       <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr">
         <is>
@@ -30938,9 +31108,11 @@
         <v>-334111.0596424896</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
-      </c>
-      <c r="I903" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I903" t="n">
+        <v>220.4</v>
+      </c>
       <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
@@ -30975,9 +31147,11 @@
         <v>-336798.8004424896</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
-      </c>
-      <c r="I904" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I904" t="n">
+        <v>220.6</v>
+      </c>
       <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr">
         <is>
@@ -31012,9 +31186,11 @@
         <v>-336798.8004424896</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
-      </c>
-      <c r="I905" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I905" t="n">
+        <v>220.5</v>
+      </c>
       <c r="J905" t="inlineStr"/>
       <c r="K905" t="inlineStr">
         <is>
@@ -31049,9 +31225,11 @@
         <v>-336798.8004424896</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
-      </c>
-      <c r="I906" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I906" t="n">
+        <v>220.5</v>
+      </c>
       <c r="J906" t="inlineStr"/>
       <c r="K906" t="inlineStr">
         <is>
@@ -31086,9 +31264,11 @@
         <v>-336798.8004424896</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
-      </c>
-      <c r="I907" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I907" t="n">
+        <v>220.5</v>
+      </c>
       <c r="J907" t="inlineStr"/>
       <c r="K907" t="inlineStr">
         <is>
@@ -31123,9 +31303,11 @@
         <v>-336798.8004424896</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
-      </c>
-      <c r="I908" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I908" t="n">
+        <v>220.5</v>
+      </c>
       <c r="J908" t="inlineStr"/>
       <c r="K908" t="inlineStr">
         <is>
@@ -31160,9 +31342,11 @@
         <v>-342147.5689424896</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
-      </c>
-      <c r="I909" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I909" t="n">
+        <v>220.5</v>
+      </c>
       <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr">
         <is>
@@ -31197,9 +31381,11 @@
         <v>-345709.3981424896</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
-      </c>
-      <c r="I910" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I910" t="n">
+        <v>220.4</v>
+      </c>
       <c r="J910" t="inlineStr"/>
       <c r="K910" t="inlineStr">
         <is>
@@ -31234,9 +31420,11 @@
         <v>-345709.3981424896</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
-      </c>
-      <c r="I911" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I911" t="n">
+        <v>220.2</v>
+      </c>
       <c r="J911" t="inlineStr"/>
       <c r="K911" t="inlineStr">
         <is>
@@ -31271,9 +31459,11 @@
         <v>-345709.3981424896</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
-      </c>
-      <c r="I912" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I912" t="n">
+        <v>220.2</v>
+      </c>
       <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr">
         <is>
@@ -31425,9 +31615,11 @@
         <v>-348033.4075424896</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
-      </c>
-      <c r="I916" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I916" t="n">
+        <v>220.3</v>
+      </c>
       <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr">
         <is>
@@ -31462,9 +31654,11 @@
         <v>-348033.4075424896</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
-      </c>
-      <c r="I917" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I917" t="n">
+        <v>220.3</v>
+      </c>
       <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr">
         <is>
@@ -31499,9 +31693,11 @@
         <v>-348033.4075424896</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
-      </c>
-      <c r="I918" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I918" t="n">
+        <v>220.3</v>
+      </c>
       <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr">
         <is>
@@ -31536,9 +31732,11 @@
         <v>-348033.4075424896</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
-      </c>
-      <c r="I919" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I919" t="n">
+        <v>220.3</v>
+      </c>
       <c r="J919" t="inlineStr"/>
       <c r="K919" t="inlineStr">
         <is>
@@ -31573,9 +31771,11 @@
         <v>-348033.4075424896</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
-      </c>
-      <c r="I920" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I920" t="n">
+        <v>220.3</v>
+      </c>
       <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr">
         <is>
@@ -31610,9 +31810,11 @@
         <v>-348033.4075424896</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
-      </c>
-      <c r="I921" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I921" t="n">
+        <v>220.3</v>
+      </c>
       <c r="J921" t="inlineStr"/>
       <c r="K921" t="inlineStr">
         <is>
@@ -31647,9 +31849,11 @@
         <v>-348033.4075424896</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
-      </c>
-      <c r="I922" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I922" t="n">
+        <v>220.3</v>
+      </c>
       <c r="J922" t="inlineStr"/>
       <c r="K922" t="inlineStr">
         <is>
@@ -31684,9 +31888,11 @@
         <v>-348033.4075424896</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
-      </c>
-      <c r="I923" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I923" t="n">
+        <v>220.3</v>
+      </c>
       <c r="J923" t="inlineStr"/>
       <c r="K923" t="inlineStr">
         <is>
@@ -31721,9 +31927,11 @@
         <v>-348033.4075424896</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
-      </c>
-      <c r="I924" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I924" t="n">
+        <v>220.3</v>
+      </c>
       <c r="J924" t="inlineStr"/>
       <c r="K924" t="inlineStr">
         <is>
@@ -31758,9 +31966,11 @@
         <v>-348033.4075424896</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
-      </c>
-      <c r="I925" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I925" t="n">
+        <v>220.3</v>
+      </c>
       <c r="J925" t="inlineStr"/>
       <c r="K925" t="inlineStr">
         <is>
@@ -31795,9 +32005,11 @@
         <v>-348033.4075424896</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
-      </c>
-      <c r="I926" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I926" t="n">
+        <v>220.3</v>
+      </c>
       <c r="J926" t="inlineStr"/>
       <c r="K926" t="inlineStr">
         <is>
@@ -31832,9 +32044,11 @@
         <v>-348033.4075424896</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
-      </c>
-      <c r="I927" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I927" t="n">
+        <v>220.3</v>
+      </c>
       <c r="J927" t="inlineStr"/>
       <c r="K927" t="inlineStr">
         <is>
@@ -31869,9 +32083,11 @@
         <v>-335217.2419424896</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
-      </c>
-      <c r="I928" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I928" t="n">
+        <v>220.3</v>
+      </c>
       <c r="J928" t="inlineStr"/>
       <c r="K928" t="inlineStr">
         <is>
@@ -31906,9 +32122,11 @@
         <v>-335217.2419424896</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
-      </c>
-      <c r="I929" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I929" t="n">
+        <v>221.1</v>
+      </c>
       <c r="J929" t="inlineStr"/>
       <c r="K929" t="inlineStr">
         <is>
@@ -31943,9 +32161,11 @@
         <v>-335217.2419424896</v>
       </c>
       <c r="H930" t="n">
-        <v>0</v>
-      </c>
-      <c r="I930" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I930" t="n">
+        <v>221.1</v>
+      </c>
       <c r="J930" t="inlineStr"/>
       <c r="K930" t="inlineStr">
         <is>
@@ -31980,9 +32200,11 @@
         <v>-335217.2419424896</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
-      </c>
-      <c r="I931" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I931" t="n">
+        <v>221.1</v>
+      </c>
       <c r="J931" t="inlineStr"/>
       <c r="K931" t="inlineStr">
         <is>
@@ -32017,9 +32239,11 @@
         <v>-335217.2419424896</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
-      </c>
-      <c r="I932" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I932" t="n">
+        <v>221.1</v>
+      </c>
       <c r="J932" t="inlineStr"/>
       <c r="K932" t="inlineStr">
         <is>
@@ -32054,9 +32278,11 @@
         <v>-335217.2419424896</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
-      </c>
-      <c r="I933" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I933" t="n">
+        <v>221.1</v>
+      </c>
       <c r="J933" t="inlineStr"/>
       <c r="K933" t="inlineStr">
         <is>
@@ -32091,9 +32317,11 @@
         <v>-335217.2419424896</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
-      </c>
-      <c r="I934" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I934" t="n">
+        <v>221.1</v>
+      </c>
       <c r="J934" t="inlineStr"/>
       <c r="K934" t="inlineStr">
         <is>
@@ -32128,9 +32356,11 @@
         <v>-335217.2419424896</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
-      </c>
-      <c r="I935" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I935" t="n">
+        <v>221.1</v>
+      </c>
       <c r="J935" t="inlineStr"/>
       <c r="K935" t="inlineStr">
         <is>
@@ -32165,9 +32395,11 @@
         <v>-335217.2419424896</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
-      </c>
-      <c r="I936" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I936" t="n">
+        <v>221.1</v>
+      </c>
       <c r="J936" t="inlineStr"/>
       <c r="K936" t="inlineStr">
         <is>
@@ -32202,9 +32434,11 @@
         <v>-335217.2419424896</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
-      </c>
-      <c r="I937" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I937" t="n">
+        <v>221.1</v>
+      </c>
       <c r="J937" t="inlineStr"/>
       <c r="K937" t="inlineStr">
         <is>
@@ -32239,9 +32473,11 @@
         <v>-335217.2419424896</v>
       </c>
       <c r="H938" t="n">
-        <v>0</v>
-      </c>
-      <c r="I938" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I938" t="n">
+        <v>221.1</v>
+      </c>
       <c r="J938" t="inlineStr"/>
       <c r="K938" t="inlineStr">
         <is>
@@ -32276,9 +32512,11 @@
         <v>-335217.2419424896</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
-      </c>
-      <c r="I939" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I939" t="n">
+        <v>221.1</v>
+      </c>
       <c r="J939" t="inlineStr"/>
       <c r="K939" t="inlineStr">
         <is>
@@ -32313,9 +32551,11 @@
         <v>-335217.2419424896</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
-      </c>
-      <c r="I940" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I940" t="n">
+        <v>221.1</v>
+      </c>
       <c r="J940" t="inlineStr"/>
       <c r="K940" t="inlineStr">
         <is>
@@ -32350,9 +32590,11 @@
         <v>-335217.2419424896</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
-      </c>
-      <c r="I941" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I941" t="n">
+        <v>221.1</v>
+      </c>
       <c r="J941" t="inlineStr"/>
       <c r="K941" t="inlineStr">
         <is>
@@ -32387,9 +32629,11 @@
         <v>-335217.2419424896</v>
       </c>
       <c r="H942" t="n">
-        <v>0</v>
-      </c>
-      <c r="I942" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I942" t="n">
+        <v>221.1</v>
+      </c>
       <c r="J942" t="inlineStr"/>
       <c r="K942" t="inlineStr">
         <is>
@@ -32424,9 +32668,11 @@
         <v>-335217.2419424896</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
-      </c>
-      <c r="I943" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I943" t="n">
+        <v>221.1</v>
+      </c>
       <c r="J943" t="inlineStr"/>
       <c r="K943" t="inlineStr">
         <is>
@@ -32461,9 +32707,11 @@
         <v>-328464.9236424896</v>
       </c>
       <c r="H944" t="n">
-        <v>0</v>
-      </c>
-      <c r="I944" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I944" t="n">
+        <v>221.1</v>
+      </c>
       <c r="J944" t="inlineStr"/>
       <c r="K944" t="inlineStr">
         <is>
@@ -32498,9 +32746,11 @@
         <v>-332228.1211424896</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
-      </c>
-      <c r="I945" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I945" t="n">
+        <v>222.4</v>
+      </c>
       <c r="J945" t="inlineStr"/>
       <c r="K945" t="inlineStr">
         <is>
@@ -32535,9 +32785,11 @@
         <v>-332228.1211424896</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
-      </c>
-      <c r="I946" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I946" t="n">
+        <v>222.1</v>
+      </c>
       <c r="J946" t="inlineStr"/>
       <c r="K946" t="inlineStr">
         <is>
@@ -32572,9 +32824,11 @@
         <v>-344095.4931424896</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
-      </c>
-      <c r="I947" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I947" t="n">
+        <v>222.1</v>
+      </c>
       <c r="J947" t="inlineStr"/>
       <c r="K947" t="inlineStr">
         <is>
@@ -32609,9 +32863,11 @@
         <v>-340428.7824424896</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
-      </c>
-      <c r="I948" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I948" t="n">
+        <v>221.7</v>
+      </c>
       <c r="J948" t="inlineStr"/>
       <c r="K948" t="inlineStr">
         <is>
@@ -32646,9 +32902,11 @@
         <v>-351529.6959424896</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
-      </c>
-      <c r="I949" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I949" t="n">
+        <v>222</v>
+      </c>
       <c r="J949" t="inlineStr"/>
       <c r="K949" t="inlineStr">
         <is>
@@ -32683,9 +32941,11 @@
         <v>-348166.3025424896</v>
       </c>
       <c r="H950" t="n">
-        <v>0</v>
-      </c>
-      <c r="I950" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I950" t="n">
+        <v>221.7</v>
+      </c>
       <c r="J950" t="inlineStr"/>
       <c r="K950" t="inlineStr">
         <is>
@@ -32720,9 +32980,11 @@
         <v>-346490.6377424896</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
-      </c>
-      <c r="I951" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I951" t="n">
+        <v>222</v>
+      </c>
       <c r="J951" t="inlineStr"/>
       <c r="K951" t="inlineStr">
         <is>
@@ -32757,9 +33019,11 @@
         <v>-358486.8844424896</v>
       </c>
       <c r="H952" t="n">
-        <v>0</v>
-      </c>
-      <c r="I952" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I952" t="n">
+        <v>222.1</v>
+      </c>
       <c r="J952" t="inlineStr"/>
       <c r="K952" t="inlineStr">
         <is>
@@ -32794,9 +33058,11 @@
         <v>-354816.2564424896</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
-      </c>
-      <c r="I953" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I953" t="n">
+        <v>221.8</v>
+      </c>
       <c r="J953" t="inlineStr"/>
       <c r="K953" t="inlineStr">
         <is>
@@ -32831,9 +33097,11 @@
         <v>-365646.0220424896</v>
       </c>
       <c r="H954" t="n">
-        <v>0</v>
-      </c>
-      <c r="I954" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I954" t="n">
+        <v>222</v>
+      </c>
       <c r="J954" t="inlineStr"/>
       <c r="K954" t="inlineStr">
         <is>
@@ -32868,9 +33136,11 @@
         <v>-360865.3315424895</v>
       </c>
       <c r="H955" t="n">
-        <v>0</v>
-      </c>
-      <c r="I955" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I955" t="n">
+        <v>221.8</v>
+      </c>
       <c r="J955" t="inlineStr"/>
       <c r="K955" t="inlineStr">
         <is>
@@ -32905,9 +33175,11 @@
         <v>-413671.4936424895</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
-      </c>
-      <c r="I956" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I956" t="n">
+        <v>222</v>
+      </c>
       <c r="J956" t="inlineStr"/>
       <c r="K956" t="inlineStr">
         <is>
@@ -32942,9 +33214,11 @@
         <v>-409319.4436424896</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
-      </c>
-      <c r="I957" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I957" t="n">
+        <v>221.7</v>
+      </c>
       <c r="J957" t="inlineStr"/>
       <c r="K957" t="inlineStr">
         <is>
@@ -32979,9 +33253,11 @@
         <v>-405991.7713424896</v>
       </c>
       <c r="H958" t="n">
-        <v>0</v>
-      </c>
-      <c r="I958" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I958" t="n">
+        <v>222.2</v>
+      </c>
       <c r="J958" t="inlineStr"/>
       <c r="K958" t="inlineStr">
         <is>
@@ -33016,9 +33292,11 @@
         <v>-405991.7713424896</v>
       </c>
       <c r="H959" t="n">
-        <v>0</v>
-      </c>
-      <c r="I959" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I959" t="n">
+        <v>222.3</v>
+      </c>
       <c r="J959" t="inlineStr"/>
       <c r="K959" t="inlineStr">
         <is>
@@ -33053,9 +33331,11 @@
         <v>-399225.1743424896</v>
       </c>
       <c r="H960" t="n">
-        <v>0</v>
-      </c>
-      <c r="I960" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I960" t="n">
+        <v>222.3</v>
+      </c>
       <c r="J960" t="inlineStr"/>
       <c r="K960" t="inlineStr">
         <is>
@@ -33793,16 +34073,18 @@
         <v>-270083.3243096295</v>
       </c>
       <c r="H980" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
       <c r="K980" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L980" t="inlineStr"/>
+      <c r="L980" t="n">
+        <v>1</v>
+      </c>
       <c r="M980" t="inlineStr"/>
     </row>
     <row r="981">
@@ -33828,11 +34110,15 @@
         <v>-264319.4919096295</v>
       </c>
       <c r="H981" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr"/>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -33861,11 +34147,15 @@
         <v>-268307.6240096295</v>
       </c>
       <c r="H982" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr"/>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -33894,11 +34184,15 @@
         <v>-263719.4403096295</v>
       </c>
       <c r="H983" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr"/>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -33927,11 +34221,15 @@
         <v>-268012.1791096295</v>
       </c>
       <c r="H984" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr"/>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -33960,11 +34258,15 @@
         <v>-268012.1791096295</v>
       </c>
       <c r="H985" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr"/>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -33993,11 +34295,15 @@
         <v>-263051.6986096295</v>
       </c>
       <c r="H986" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr"/>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -34026,11 +34332,15 @@
         <v>-265935.1771096295</v>
       </c>
       <c r="H987" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr"/>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -34059,11 +34369,15 @@
         <v>-257451.2431096295</v>
       </c>
       <c r="H988" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr"/>
+      <c r="K988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -34092,11 +34406,15 @@
         <v>-252016.2202096295</v>
       </c>
       <c r="H989" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr"/>
+      <c r="K989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -34129,7 +34447,11 @@
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr"/>
+      <c r="K990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -34158,11 +34480,15 @@
         <v>-242607.9811096295</v>
       </c>
       <c r="H991" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr"/>
+      <c r="K991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -34191,11 +34517,15 @@
         <v>-236881.6245096295</v>
       </c>
       <c r="H992" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr"/>
+      <c r="K992" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -34224,11 +34554,15 @@
         <v>-231024.4772096295</v>
       </c>
       <c r="H993" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr"/>
+      <c r="K993" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -34257,11 +34591,15 @@
         <v>-216514.9019381895</v>
       </c>
       <c r="H994" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr"/>
+      <c r="K994" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -34290,11 +34628,15 @@
         <v>-221671.6254381895</v>
       </c>
       <c r="H995" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr"/>
+      <c r="K995" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -34323,11 +34665,15 @@
         <v>-216640.0018381895</v>
       </c>
       <c r="H996" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr"/>
+      <c r="K996" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -34356,11 +34702,15 @@
         <v>-216640.0018381895</v>
       </c>
       <c r="H997" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr"/>
+      <c r="K997" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -34389,11 +34739,15 @@
         <v>-223887.3484381895</v>
       </c>
       <c r="H998" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr"/>
+      <c r="K998" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -34422,11 +34776,15 @@
         <v>-229891.8252381895</v>
       </c>
       <c r="H999" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr"/>
+      <c r="K999" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -34455,11 +34813,15 @@
         <v>-224627.8325381895</v>
       </c>
       <c r="H1000" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr"/>
+      <c r="K1000" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -34488,11 +34850,15 @@
         <v>-176316.0820381895</v>
       </c>
       <c r="H1001" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr"/>
+      <c r="K1001" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -34521,11 +34887,15 @@
         <v>-159182.9641381895</v>
       </c>
       <c r="H1002" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr"/>
+      <c r="K1002" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -34554,11 +34924,15 @@
         <v>-154446.3036381895</v>
       </c>
       <c r="H1003" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr"/>
+      <c r="K1003" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -34587,11 +34961,15 @@
         <v>-146789.1728381895</v>
       </c>
       <c r="H1004" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr"/>
+      <c r="K1004" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -34620,11 +34998,15 @@
         <v>-151492.4836381895</v>
       </c>
       <c r="H1005" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr"/>
+      <c r="K1005" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -34657,7 +35039,11 @@
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr"/>
+      <c r="K1006" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -34690,7 +35076,11 @@
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr"/>
+      <c r="K1007" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -34723,7 +35113,11 @@
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr"/>
+      <c r="K1008" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -34756,7 +35150,11 @@
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr"/>
+      <c r="K1009" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -34789,7 +35187,11 @@
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr"/>
+      <c r="K1010" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -34822,7 +35224,11 @@
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr"/>
+      <c r="K1011" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -34855,7 +35261,11 @@
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr"/>
+      <c r="K1012" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -34888,7 +35298,11 @@
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr"/>
+      <c r="K1013" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -34921,7 +35335,11 @@
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr"/>
+      <c r="K1014" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -34954,7 +35372,11 @@
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr"/>
+      <c r="K1015" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -34987,7 +35409,11 @@
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr"/>
+      <c r="K1016" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -35020,7 +35446,11 @@
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr"/>
+      <c r="K1017" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -35053,7 +35483,11 @@
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr"/>
+      <c r="K1018" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -35086,7 +35520,11 @@
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr"/>
+      <c r="K1019" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -35119,7 +35557,11 @@
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr"/>
+      <c r="K1020" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -35152,7 +35594,11 @@
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr"/>
+      <c r="K1021" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -35185,7 +35631,11 @@
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr"/>
+      <c r="K1022" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -35218,7 +35668,11 @@
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr"/>
+      <c r="K1023" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -35251,7 +35705,11 @@
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr"/>
+      <c r="K1024" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -35284,7 +35742,11 @@
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr"/>
+      <c r="K1025" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -35313,14 +35775,16 @@
         <v>1760.346661810579</v>
       </c>
       <c r="H1026" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr"/>
-      <c r="L1026" t="n">
-        <v>1</v>
-      </c>
+      <c r="K1026" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L1026" t="inlineStr"/>
       <c r="M1026" t="inlineStr"/>
     </row>
     <row r="1027">
@@ -35412,7 +35876,7 @@
         <v>51033.42786181057</v>
       </c>
       <c r="H1029" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -35445,7 +35909,7 @@
         <v>47128.32256181057</v>
       </c>
       <c r="H1030" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -35478,7 +35942,7 @@
         <v>53867.84926181057</v>
       </c>
       <c r="H1031" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -35511,7 +35975,7 @@
         <v>49155.01646181058</v>
       </c>
       <c r="H1032" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -35544,7 +36008,7 @@
         <v>41540.00026181058</v>
       </c>
       <c r="H1033" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -35577,7 +36041,7 @@
         <v>35009.19676181058</v>
       </c>
       <c r="H1034" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -35610,7 +36074,7 @@
         <v>42192.72506181058</v>
       </c>
       <c r="H1035" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -35643,7 +36107,7 @@
         <v>24150.02626181058</v>
       </c>
       <c r="H1036" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -35676,7 +36140,7 @@
         <v>24150.02626181058</v>
       </c>
       <c r="H1037" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -35709,7 +36173,7 @@
         <v>27683.41076181058</v>
       </c>
       <c r="H1038" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -35775,7 +36239,7 @@
         <v>28083.86336181058</v>
       </c>
       <c r="H1040" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -36105,7 +36569,7 @@
         <v>141855.9681618106</v>
       </c>
       <c r="H1050" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
@@ -36138,7 +36602,7 @@
         <v>135010.5805618106</v>
       </c>
       <c r="H1051" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
@@ -36171,7 +36635,7 @@
         <v>131846.1177618106</v>
       </c>
       <c r="H1052" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
@@ -36204,7 +36668,7 @@
         <v>106392.1294618106</v>
       </c>
       <c r="H1053" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
@@ -36237,7 +36701,7 @@
         <v>115278.8468618106</v>
       </c>
       <c r="H1054" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
@@ -36270,7 +36734,7 @@
         <v>119736.7539618106</v>
       </c>
       <c r="H1055" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
@@ -36303,7 +36767,7 @@
         <v>114975.9076618106</v>
       </c>
       <c r="H1056" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
@@ -36336,7 +36800,7 @@
         <v>124142.4204618106</v>
       </c>
       <c r="H1057" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
@@ -36369,7 +36833,7 @@
         <v>119147.8587618106</v>
       </c>
       <c r="H1058" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
@@ -36402,7 +36866,7 @@
         <v>116258.3018618106</v>
       </c>
       <c r="H1059" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
@@ -36435,7 +36899,7 @@
         <v>131144.0325618106</v>
       </c>
       <c r="H1060" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
@@ -36468,7 +36932,7 @@
         <v>135605.1998618106</v>
       </c>
       <c r="H1061" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
@@ -36501,7 +36965,7 @@
         <v>131871.0643618106</v>
       </c>
       <c r="H1062" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
@@ -36534,7 +36998,7 @@
         <v>137546.6326618106</v>
       </c>
       <c r="H1063" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
@@ -36567,7 +37031,7 @@
         <v>141057.3066618106</v>
       </c>
       <c r="H1064" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
@@ -36600,7 +37064,7 @@
         <v>136299.4936618106</v>
       </c>
       <c r="H1065" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
@@ -36633,7 +37097,7 @@
         <v>133699.1181618106</v>
       </c>
       <c r="H1066" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
@@ -36798,7 +37262,7 @@
         <v>124450.0594618106</v>
       </c>
       <c r="H1071" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
@@ -36831,7 +37295,7 @@
         <v>129040.8877535806</v>
       </c>
       <c r="H1072" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
@@ -36864,7 +37328,7 @@
         <v>124774.0661535806</v>
       </c>
       <c r="H1073" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
@@ -36897,7 +37361,7 @@
         <v>110630.9943535806</v>
       </c>
       <c r="H1074" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
